--- a/ExampleFiles/Event Compile/ExampleOutput/Events_Synthesized.xlsx
+++ b/ExampleFiles/Event Compile/ExampleOutput/Events_Synthesized.xlsx
@@ -462,7 +462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,22 +476,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.67544153333333</v>
+        <v>85.55054053333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2767117245358591</v>
+        <v>1.12733623273567</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.5859142</v>
+        <v>53.5932352</v>
       </c>
       <c r="G2" t="n">
-        <v>1.840627452221276</v>
+        <v>1.528969177966811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,27 +578,23 @@
           <t>Event 1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="D5" t="n">
+        <v>3.2575358</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.293348942204379</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.4443802</v>
+        <v>-11.86705153333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08375484637488151</v>
+        <v>6.955414537425095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -635,7 +631,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -672,7 +668,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -686,22 +682,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1539816</v>
+        <v>9.679502866666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06039108604885328</v>
+        <v>4.875978341980323</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6229879333333334</v>
+        <v>-25.00754846666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02529570518504841</v>
+        <v>7.663823509590887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -715,13 +711,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.917622933333333</v>
+        <v>11.3497572</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8280660231915058</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.2563444</v>
+        <v>-3.7141776</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,7 +726,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -767,7 +763,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -781,22 +777,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76.40000000000001</v>
+        <v>32.06666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>4.320493798938574</v>
+        <v>1.699673171197595</v>
       </c>
       <c r="F11" t="n">
-        <v>15.8</v>
+        <v>98</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1632993161855454</v>
+        <v>1.177568115510379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -833,7 +829,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -870,7 +866,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -883,27 +879,23 @@
           <t>Event 1</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="D14" t="n">
+        <v>105.9333333333333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.645667037382488</v>
       </c>
       <c r="F14" t="n">
-        <v>77.13333333333334</v>
+        <v>180.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9843215373488958</v>
+        <v>12.49746640990352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -940,7 +932,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -977,7 +969,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -991,22 +983,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20.26666666666667</v>
+        <v>43.46666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>1.049867716534908</v>
+        <v>19.01671779134232</v>
       </c>
       <c r="F17" t="n">
-        <v>19.66666666666667</v>
+        <v>120.4</v>
       </c>
       <c r="G17" t="n">
-        <v>9.156903892085408</v>
+        <v>39.56159754104983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1020,13 +1012,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>88.13333333333333</v>
+        <v>115.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8055363982396363</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>68.40000000000001</v>
+        <v>189.2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1035,7 +1027,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1072,7 +1064,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1086,22 +1078,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75.64356435643565</v>
+        <v>15.34290271066667</v>
       </c>
       <c r="E20" t="n">
-        <v>4.277716632612455</v>
+        <v>0.8132407494445668</v>
       </c>
       <c r="F20" t="n">
-        <v>15.64356435643565</v>
+        <v>46.88995215000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1616824912728165</v>
+        <v>0.563429720903323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1138,7 +1130,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1167,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1188,27 +1180,23 @@
           <t>Event 1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="D23" t="n">
+        <v>50.685805424</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.222807196205107</v>
       </c>
       <c r="F23" t="n">
-        <v>76.36963696369637</v>
+        <v>86.22009569400001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9745757795533602</v>
+        <v>5.979649000300345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1245,7 +1233,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1282,7 +1270,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1296,22 +1284,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20.06600660066007</v>
+        <v>20.7974481656</v>
       </c>
       <c r="E26" t="n">
-        <v>1.039472986668225</v>
+        <v>9.098908033789201</v>
       </c>
       <c r="F26" t="n">
-        <v>19.47194719471947</v>
+        <v>57.60765550266667</v>
       </c>
       <c r="G26" t="n">
-        <v>9.066241477312285</v>
+        <v>18.92899403705579</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1325,13 +1313,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>87.26072607260726</v>
+        <v>55.311004786</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7975607903362817</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>67.72277227722773</v>
+        <v>90.52631578999998</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1340,7 +1328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1433,7 +1421,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1462,7 +1450,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1499,7 +1487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1536,7 +1524,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1569,7 +1557,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1606,7 +1594,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,7 +1631,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1672,7 +1660,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1701,7 +1689,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,7 +1726,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1767,7 +1755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1804,7 +1792,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1841,7 +1829,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1874,7 +1862,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1911,7 +1899,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1948,7 +1936,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1977,7 +1965,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2006,7 +1994,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2043,7 +2031,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2057,22 +2045,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76.17161716171617</v>
+        <v>76.17161715933332</v>
       </c>
       <c r="E20" t="n">
-        <v>1.873936576445984</v>
+        <v>1.873936576633394</v>
       </c>
       <c r="F20" t="n">
-        <v>13.92739273927393</v>
+        <v>13.9273927406</v>
       </c>
       <c r="G20" t="n">
-        <v>1.147072422243087</v>
+        <v>1.147072422430683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2109,7 +2097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LeftAnkleAngle_X</t>
+          <t>Right_Ankle_Angle_X</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2146,7 +2134,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2170,16 +2158,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>78.01980198019803</v>
+        <v>78.019801978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8555433265224971</v>
+        <v>0.855543326608042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2216,7 +2204,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LeftAnkleMoment_X</t>
+          <t>Right_Ankle_Moment_X</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2253,7 +2241,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2267,22 +2255,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27.98679867986798</v>
+        <v>27.98679868133334</v>
       </c>
       <c r="E26" t="n">
-        <v>6.20813045862838</v>
+        <v>6.208130458306464</v>
       </c>
       <c r="F26" t="n">
-        <v>34.05940594059405</v>
+        <v>34.05940593946666</v>
       </c>
       <c r="G26" t="n">
-        <v>19.82243168307759</v>
+        <v>19.82243168214417</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2296,13 +2284,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>87.92079207920793</v>
+        <v>87.92079207800001</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>65.94059405940595</v>
+        <v>65.94059405599999</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2311,7 +2299,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LeftAnklePower_X</t>
+          <t>Right_Ankle_Power_X</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
